--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" activeCellId="1" sqref="G1 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,11 @@
       <color theme="1"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="8">
@@ -434,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -479,9 +484,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,6 +503,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="1" sqref="G1 D8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,450 +858,450 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="22" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>255</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="22" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>255</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="22" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -1304,10 +1312,10 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
@@ -192,9 +192,6 @@
     <t>Ob</t>
   </si>
   <si>
-    <t>TB Product Families [Family]</t>
-  </si>
-  <si>
     <t>Descripción comercial. 5 campos por idiomas (para las ofertas definidos en TB Idiomas CRM). Hay que importarlos de SAP.</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Gestor documental del CRM (manuales, presentaciones ppt, etc.)</t>
+  </si>
+  <si>
+    <t>TB Product Families [Category]</t>
   </si>
 </sst>
 </file>
@@ -495,6 +495,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,12 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
@@ -872,11 +872,11 @@
         <v>23</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
@@ -890,13 +890,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -910,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
@@ -930,13 +930,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
@@ -950,207 +950,207 @@
         <v>23</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="22" t="s">
-        <v>58</v>
+      <c r="G6" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>24</v>
@@ -1158,15 +1158,15 @@
       <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>24</v>
@@ -1182,13 +1182,13 @@
       <c r="F17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
@@ -1196,19 +1196,19 @@
         <v>48</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
@@ -1216,59 +1216,59 @@
         <v>48</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
@@ -1282,13 +1282,13 @@
       <c r="F22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
@@ -1298,10 +1298,10 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="20"/>
+      <c r="G23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -1312,10 +1312,10 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ProductsServices_150520.xlsx
@@ -195,9 +195,6 @@
     <t>Descripción comercial. 5 campos por idiomas (para las ofertas definidos en TB Idiomas CRM). Hay que importarlos de SAP.</t>
   </si>
   <si>
-    <t>TB Product Families [Subfamily]</t>
-  </si>
-  <si>
     <t>TB Product Families [Series]</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>TB Product Families [Category]</t>
+  </si>
+  <si>
+    <t>TB Product Families [Family]</t>
   </si>
 </sst>
 </file>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,14 +961,14 @@
         <v>7</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>33</v>
@@ -983,14 +983,14 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>34</v>
@@ -1005,14 +1005,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>35</v>
@@ -1025,14 +1025,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>33</v>
@@ -1045,14 +1045,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>34</v>
@@ -1067,14 +1067,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>35</v>
@@ -1087,14 +1087,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>33</v>
@@ -1107,14 +1107,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>34</v>
@@ -1127,14 +1127,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>35</v>
@@ -1144,13 +1144,13 @@
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>24</v>
@@ -1174,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>24</v>
@@ -1196,7 +1196,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
@@ -1230,22 +1230,22 @@
     <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="22"/>
     </row>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
@@ -1299,7 +1299,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="22"/>
     </row>
